--- a/biology/Zoologie/Axiothea_(conodonte)/Axiothea_(conodonte).xlsx
+++ b/biology/Zoologie/Axiothea_(conodonte)/Axiothea_(conodonte).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Axiothea est un genre fossile de conodontes.
 </t>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Des fossiles ont été trouvés à Katsuyama (Section UF) et à Inuyama (section Kb1), dans des formations datant du Trias, au  Japon.
 Au niveau du site d'Inuyama au Japon, le dernier représentant des conodontes est Axiothea posthernsteini (Kozur &amp; Mock) Fahraeus &amp; Ryley, 1989, datant de la toute fin du Trias, ou du tout début du Jurassique.
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre parent, Misikella Kozur and Mock, 1974, est considéré comme celui possédant un appareil à quatre éléments, dans lequel une seule espèce, Misikella longidentata, est conservée.
 Le genre Axiothea a été créé pour classer les autres spécimens à appareil à deux éléments.
@@ -576,7 +592,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>†Axiothea posthernsteini (Kozur &amp; Mock) Fahraeus &amp; Ryley, 1989</t>
         </is>
